--- a/Guideline_Deploy-elearning-portal-with-Sakai_Basic.xlsx
+++ b/Guideline_Deploy-elearning-portal-with-Sakai_Basic.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="11340" windowHeight="8535" tabRatio="991"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="11340" windowHeight="8535" tabRatio="991" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
     <sheet name="Linux" sheetId="48" r:id="rId2"/>
-    <sheet name="Sakai" sheetId="49" r:id="rId3"/>
+    <sheet name="Sakai" sheetId="56" r:id="rId3"/>
     <sheet name="_APR" sheetId="19" r:id="rId4"/>
     <sheet name="_setenv.sh" sheetId="40" r:id="rId5"/>
     <sheet name="_tomcat-service" sheetId="29" r:id="rId6"/>
@@ -23,14 +23,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Linux!$A$1:$AE$146</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$1:$C$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sakai!$A$1:$AE$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sakai!$A$1:$AE$111</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="399">
   <si>
     <t>#</t>
   </si>
@@ -709,9 +709,6 @@
     <t>mkdir /opt/tomcat/sakai</t>
   </si>
   <si>
-    <t xml:space="preserve"> cp ~/soft/default.sakai.properties /opt/tomcat/sakai/sakai.properties</t>
-  </si>
-  <si>
     <t>Copy default sakai.properties into the sakai</t>
   </si>
   <si>
@@ -764,15 +761,6 @@
   </si>
   <si>
     <t>Insert below lines into the sakai.properties afer line "## MySQL settings" (without double-quotes)</t>
-  </si>
-  <si>
-    <t>url@javax.sql.BaseDataSource=jdbc:mysql://&lt;IP of DB Server&gt;:3306/sakai106?useUnicode=true&amp;characterEncoding=UTF-8</t>
-  </si>
-  <si>
-    <t>password@javax.sql.BaseDataSource=&lt;your db password&gt;</t>
-  </si>
-  <si>
-    <t>username@javax.sql.BaseDataSource=&lt;your db account name&gt;</t>
   </si>
   <si>
     <t>nano /opt/tomcat/conf/catalina.properties</t>
@@ -1292,6 +1280,30 @@
   </si>
   <si>
     <t>Create exam</t>
+  </si>
+  <si>
+    <t>cd ~/soft</t>
+  </si>
+  <si>
+    <t>cp ~/soft/default.sakai.properties /opt/tomcat/sakai/sakai.properties</t>
+  </si>
+  <si>
+    <t>nano /opt/tomcat/sakai/sakai.properties</t>
+  </si>
+  <si>
+    <t>url@javax.sql.BaseDataSource=jdbc:mysql://10.88.16.135:3306/sakai106?useUnicode=true&amp;characterEncoding=UTF-8</t>
+  </si>
+  <si>
+    <t>username@javax.sql.BaseDataSource=sakai_admin</t>
+  </si>
+  <si>
+    <t>password@javax.sql.BaseDataSource=sakai_admin</t>
+  </si>
+  <si>
+    <t>validationQuery@javax.sql.BaseDataSource=select 1 from DUAL</t>
+  </si>
+  <si>
+    <t>defaultTransactionIsolationString@javax.sql.BaseDataSource=TRANSACTION_READ_COMMITTED</t>
   </si>
 </sst>
 </file>
@@ -1578,14 +1590,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1658,18 +1671,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1716,18 +1719,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1740,10 +1731,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8089,7 +8159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -8104,30 +8176,30 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:3" ht="13.5" thickTop="1">
       <c r="B4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A6" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="60"/>
+      <c r="A6" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:3" ht="13.5" thickTop="1">
       <c r="B7" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8135,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>40</v>
@@ -8149,7 +8221,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8168,10 +8240,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8179,10 +8251,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8190,10 +8262,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8201,14 +8273,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="62"/>
+      <c r="C18" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8237,73 +8309,73 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="7" width="3.28515625" style="47"/>
-    <col min="8" max="16384" width="3.28515625" style="63"/>
+    <col min="8" max="16384" width="3.28515625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="67">
+      <c r="A1" s="61">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>357</v>
+      <c r="B1" s="65" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="47" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" s="47" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="47" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="67">
+      <c r="A69" s="61">
         <v>2</v>
       </c>
-      <c r="B69" s="71" t="s">
-        <v>386</v>
+      <c r="B69" s="65" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="47" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="C166" s="47" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" s="47" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="47" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -8322,124 +8394,124 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="7" width="3.28515625" style="47"/>
-    <col min="8" max="16384" width="3.28515625" style="63"/>
+    <col min="8" max="16384" width="3.28515625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="67">
+      <c r="A1" s="61">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>362</v>
+      <c r="B1" s="65" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="47" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="47" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="47" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="47" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="47" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="47" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="47" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="47" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="47" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="47" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" spans="2:3">
       <c r="C203" s="47" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="47" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="47" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="47" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" s="47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" s="47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" s="47" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" s="47" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="B440" s="47" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="67">
+      <c r="A443" s="61">
         <v>2</v>
       </c>
       <c r="B443" s="47" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="473" spans="8:8">
-      <c r="H473" s="63" t="s">
-        <v>383</v>
+      <c r="H473" s="57" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -8460,7 +8532,7 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="7" width="3.28515625" style="47"/>
-    <col min="8" max="16384" width="3.28515625" style="63"/>
+    <col min="8" max="16384" width="3.28515625" style="57"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -8482,7 +8554,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -8500,12 +8572,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -8946,7 +9018,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="2:22">
@@ -8954,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -8980,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -9005,8 +9077,8 @@
       <c r="C59" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="55" t="s">
-        <v>252</v>
+      <c r="D59" s="51" t="s">
+        <v>248</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -9084,7 +9156,7 @@
     <row r="68" spans="3:22">
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="3:22">
@@ -9546,36 +9618,36 @@
       <c r="V90" s="11"/>
     </row>
     <row r="91" spans="3:30" ht="60" customHeight="1">
-      <c r="C91" s="73" t="s">
+      <c r="C91" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="73"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="73"/>
-      <c r="N91" s="73"/>
-      <c r="O91" s="73"/>
-      <c r="P91" s="73"/>
-      <c r="Q91" s="73"/>
-      <c r="R91" s="73"/>
-      <c r="S91" s="73"/>
-      <c r="T91" s="73"/>
-      <c r="U91" s="73"/>
-      <c r="V91" s="73"/>
-      <c r="W91" s="73"/>
-      <c r="X91" s="73"/>
-      <c r="Y91" s="73"/>
-      <c r="Z91" s="73"/>
-      <c r="AA91" s="73"/>
-      <c r="AB91" s="73"/>
-      <c r="AC91" s="73"/>
-      <c r="AD91" s="73"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
+      <c r="Q91" s="67"/>
+      <c r="R91" s="67"/>
+      <c r="S91" s="67"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="67"/>
+      <c r="V91" s="67"/>
+      <c r="W91" s="67"/>
+      <c r="X91" s="67"/>
+      <c r="Y91" s="67"/>
+      <c r="Z91" s="67"/>
+      <c r="AA91" s="67"/>
+      <c r="AB91" s="67"/>
+      <c r="AC91" s="67"/>
+      <c r="AD91" s="67"/>
     </row>
     <row r="92" spans="3:30">
       <c r="C92" s="31" t="s">
@@ -9651,7 +9723,7 @@
     </row>
     <row r="95" spans="3:30">
       <c r="C95" s="41" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D95" s="30"/>
       <c r="E95" s="11"/>
@@ -9820,7 +9892,7 @@
     <row r="102" spans="3:28">
       <c r="C102" s="3"/>
       <c r="D102" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -10346,186 +10418,186 @@
       <c r="V123" s="11"/>
     </row>
     <row r="124" spans="3:30">
-      <c r="C124" s="74" t="s">
+      <c r="C124" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="D124" s="75"/>
-      <c r="E124" s="75"/>
-      <c r="F124" s="75"/>
-      <c r="G124" s="75"/>
-      <c r="H124" s="75"/>
-      <c r="I124" s="75"/>
-      <c r="J124" s="75"/>
-      <c r="K124" s="75"/>
-      <c r="L124" s="75"/>
-      <c r="M124" s="75"/>
-      <c r="N124" s="75"/>
-      <c r="O124" s="75"/>
-      <c r="P124" s="75"/>
-      <c r="Q124" s="75"/>
-      <c r="R124" s="75"/>
-      <c r="S124" s="75"/>
-      <c r="T124" s="75"/>
-      <c r="U124" s="75"/>
-      <c r="V124" s="75"/>
-      <c r="W124" s="75"/>
-      <c r="X124" s="75"/>
-      <c r="Y124" s="75"/>
-      <c r="Z124" s="75"/>
-      <c r="AA124" s="75"/>
-      <c r="AB124" s="75"/>
-      <c r="AC124" s="75"/>
-      <c r="AD124" s="76"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
+      <c r="N124" s="69"/>
+      <c r="O124" s="69"/>
+      <c r="P124" s="69"/>
+      <c r="Q124" s="69"/>
+      <c r="R124" s="69"/>
+      <c r="S124" s="69"/>
+      <c r="T124" s="69"/>
+      <c r="U124" s="69"/>
+      <c r="V124" s="69"/>
+      <c r="W124" s="69"/>
+      <c r="X124" s="69"/>
+      <c r="Y124" s="69"/>
+      <c r="Z124" s="69"/>
+      <c r="AA124" s="69"/>
+      <c r="AB124" s="69"/>
+      <c r="AC124" s="69"/>
+      <c r="AD124" s="70"/>
     </row>
     <row r="125" spans="3:30" ht="12.75" customHeight="1">
-      <c r="C125" s="77"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="73"/>
-      <c r="H125" s="73"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="73"/>
-      <c r="K125" s="73"/>
-      <c r="L125" s="73"/>
-      <c r="M125" s="73"/>
-      <c r="N125" s="73"/>
-      <c r="O125" s="73"/>
-      <c r="P125" s="73"/>
-      <c r="Q125" s="73"/>
-      <c r="R125" s="73"/>
-      <c r="S125" s="73"/>
-      <c r="T125" s="73"/>
-      <c r="U125" s="73"/>
-      <c r="V125" s="73"/>
-      <c r="W125" s="73"/>
-      <c r="X125" s="73"/>
-      <c r="Y125" s="73"/>
-      <c r="Z125" s="73"/>
-      <c r="AA125" s="73"/>
-      <c r="AB125" s="73"/>
-      <c r="AC125" s="73"/>
-      <c r="AD125" s="78"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+      <c r="L125" s="67"/>
+      <c r="M125" s="67"/>
+      <c r="N125" s="67"/>
+      <c r="O125" s="67"/>
+      <c r="P125" s="67"/>
+      <c r="Q125" s="67"/>
+      <c r="R125" s="67"/>
+      <c r="S125" s="67"/>
+      <c r="T125" s="67"/>
+      <c r="U125" s="67"/>
+      <c r="V125" s="67"/>
+      <c r="W125" s="67"/>
+      <c r="X125" s="67"/>
+      <c r="Y125" s="67"/>
+      <c r="Z125" s="67"/>
+      <c r="AA125" s="67"/>
+      <c r="AB125" s="67"/>
+      <c r="AC125" s="67"/>
+      <c r="AD125" s="72"/>
     </row>
     <row r="126" spans="3:30">
-      <c r="C126" s="77"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="73"/>
-      <c r="H126" s="73"/>
-      <c r="I126" s="73"/>
-      <c r="J126" s="73"/>
-      <c r="K126" s="73"/>
-      <c r="L126" s="73"/>
-      <c r="M126" s="73"/>
-      <c r="N126" s="73"/>
-      <c r="O126" s="73"/>
-      <c r="P126" s="73"/>
-      <c r="Q126" s="73"/>
-      <c r="R126" s="73"/>
-      <c r="S126" s="73"/>
-      <c r="T126" s="73"/>
-      <c r="U126" s="73"/>
-      <c r="V126" s="73"/>
-      <c r="W126" s="73"/>
-      <c r="X126" s="73"/>
-      <c r="Y126" s="73"/>
-      <c r="Z126" s="73"/>
-      <c r="AA126" s="73"/>
-      <c r="AB126" s="73"/>
-      <c r="AC126" s="73"/>
-      <c r="AD126" s="78"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="67"/>
+      <c r="N126" s="67"/>
+      <c r="O126" s="67"/>
+      <c r="P126" s="67"/>
+      <c r="Q126" s="67"/>
+      <c r="R126" s="67"/>
+      <c r="S126" s="67"/>
+      <c r="T126" s="67"/>
+      <c r="U126" s="67"/>
+      <c r="V126" s="67"/>
+      <c r="W126" s="67"/>
+      <c r="X126" s="67"/>
+      <c r="Y126" s="67"/>
+      <c r="Z126" s="67"/>
+      <c r="AA126" s="67"/>
+      <c r="AB126" s="67"/>
+      <c r="AC126" s="67"/>
+      <c r="AD126" s="72"/>
     </row>
     <row r="127" spans="3:30">
-      <c r="C127" s="77"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="73"/>
-      <c r="H127" s="73"/>
-      <c r="I127" s="73"/>
-      <c r="J127" s="73"/>
-      <c r="K127" s="73"/>
-      <c r="L127" s="73"/>
-      <c r="M127" s="73"/>
-      <c r="N127" s="73"/>
-      <c r="O127" s="73"/>
-      <c r="P127" s="73"/>
-      <c r="Q127" s="73"/>
-      <c r="R127" s="73"/>
-      <c r="S127" s="73"/>
-      <c r="T127" s="73"/>
-      <c r="U127" s="73"/>
-      <c r="V127" s="73"/>
-      <c r="W127" s="73"/>
-      <c r="X127" s="73"/>
-      <c r="Y127" s="73"/>
-      <c r="Z127" s="73"/>
-      <c r="AA127" s="73"/>
-      <c r="AB127" s="73"/>
-      <c r="AC127" s="73"/>
-      <c r="AD127" s="78"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
+      <c r="L127" s="67"/>
+      <c r="M127" s="67"/>
+      <c r="N127" s="67"/>
+      <c r="O127" s="67"/>
+      <c r="P127" s="67"/>
+      <c r="Q127" s="67"/>
+      <c r="R127" s="67"/>
+      <c r="S127" s="67"/>
+      <c r="T127" s="67"/>
+      <c r="U127" s="67"/>
+      <c r="V127" s="67"/>
+      <c r="W127" s="67"/>
+      <c r="X127" s="67"/>
+      <c r="Y127" s="67"/>
+      <c r="Z127" s="67"/>
+      <c r="AA127" s="67"/>
+      <c r="AB127" s="67"/>
+      <c r="AC127" s="67"/>
+      <c r="AD127" s="72"/>
     </row>
     <row r="128" spans="3:30">
-      <c r="C128" s="77"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="73"/>
-      <c r="G128" s="73"/>
-      <c r="H128" s="73"/>
-      <c r="I128" s="73"/>
-      <c r="J128" s="73"/>
-      <c r="K128" s="73"/>
-      <c r="L128" s="73"/>
-      <c r="M128" s="73"/>
-      <c r="N128" s="73"/>
-      <c r="O128" s="73"/>
-      <c r="P128" s="73"/>
-      <c r="Q128" s="73"/>
-      <c r="R128" s="73"/>
-      <c r="S128" s="73"/>
-      <c r="T128" s="73"/>
-      <c r="U128" s="73"/>
-      <c r="V128" s="73"/>
-      <c r="W128" s="73"/>
-      <c r="X128" s="73"/>
-      <c r="Y128" s="73"/>
-      <c r="Z128" s="73"/>
-      <c r="AA128" s="73"/>
-      <c r="AB128" s="73"/>
-      <c r="AC128" s="73"/>
-      <c r="AD128" s="78"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="67"/>
+      <c r="M128" s="67"/>
+      <c r="N128" s="67"/>
+      <c r="O128" s="67"/>
+      <c r="P128" s="67"/>
+      <c r="Q128" s="67"/>
+      <c r="R128" s="67"/>
+      <c r="S128" s="67"/>
+      <c r="T128" s="67"/>
+      <c r="U128" s="67"/>
+      <c r="V128" s="67"/>
+      <c r="W128" s="67"/>
+      <c r="X128" s="67"/>
+      <c r="Y128" s="67"/>
+      <c r="Z128" s="67"/>
+      <c r="AA128" s="67"/>
+      <c r="AB128" s="67"/>
+      <c r="AC128" s="67"/>
+      <c r="AD128" s="72"/>
     </row>
     <row r="129" spans="1:30">
-      <c r="C129" s="79"/>
-      <c r="D129" s="80"/>
-      <c r="E129" s="80"/>
-      <c r="F129" s="80"/>
-      <c r="G129" s="80"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="80"/>
-      <c r="L129" s="80"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="80"/>
-      <c r="Q129" s="80"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="80"/>
-      <c r="V129" s="80"/>
-      <c r="W129" s="80"/>
-      <c r="X129" s="80"/>
-      <c r="Y129" s="80"/>
-      <c r="Z129" s="80"/>
-      <c r="AA129" s="80"/>
-      <c r="AB129" s="80"/>
-      <c r="AC129" s="80"/>
-      <c r="AD129" s="81"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="74"/>
+      <c r="J129" s="74"/>
+      <c r="K129" s="74"/>
+      <c r="L129" s="74"/>
+      <c r="M129" s="74"/>
+      <c r="N129" s="74"/>
+      <c r="O129" s="74"/>
+      <c r="P129" s="74"/>
+      <c r="Q129" s="74"/>
+      <c r="R129" s="74"/>
+      <c r="S129" s="74"/>
+      <c r="T129" s="74"/>
+      <c r="U129" s="74"/>
+      <c r="V129" s="74"/>
+      <c r="W129" s="74"/>
+      <c r="X129" s="74"/>
+      <c r="Y129" s="74"/>
+      <c r="Z129" s="74"/>
+      <c r="AA129" s="74"/>
+      <c r="AB129" s="74"/>
+      <c r="AC129" s="74"/>
+      <c r="AD129" s="75"/>
     </row>
     <row r="130" spans="1:30">
       <c r="C130" s="29"/>
@@ -10599,7 +10671,7 @@
     </row>
     <row r="133" spans="1:30">
       <c r="C133" s="29"/>
-      <c r="D133" s="54" t="s">
+      <c r="D133" s="50" t="s">
         <v>131</v>
       </c>
       <c r="E133" s="11"/>
@@ -10648,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -10842,7 +10914,7 @@
     <row r="143" spans="1:30">
       <c r="C143" s="29"/>
       <c r="D143" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
@@ -10954,1648 +11026,1864 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE102"/>
+  <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3" customWidth="1"/>
+    <col min="1" max="2" width="3" style="81"/>
+    <col min="3" max="3" width="3.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="32" width="3" style="81"/>
+    <col min="33" max="33" width="3" style="81" customWidth="1"/>
+    <col min="34" max="16384" width="3" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>295</v>
+      <c r="A1" s="80" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>298</v>
+      <c r="A2" s="81" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" t="s">
+      <c r="B3" s="81" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="B4" s="81" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="83">
+        <v>1</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="C17" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="88"/>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="C18" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="88"/>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="C19" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="88"/>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="B21" s="82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="C22" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+    </row>
+    <row r="24" spans="2:30">
+      <c r="B24" s="82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="C25" s="82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="C27" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="88"/>
+    </row>
+    <row r="28" spans="2:30">
+      <c r="C28" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="88"/>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" s="82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30">
+      <c r="B31" s="82"/>
+      <c r="C31" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="88"/>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="C32" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="88"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="83">
+        <v>2</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="C38" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="88"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="C40" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="82"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="C42" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="96"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="C43" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="98"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="C44" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="101"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="C46" s="82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31">
+      <c r="C50" s="82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31">
+      <c r="C51" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
+      <c r="S51" s="87"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="87"/>
+      <c r="V51" s="88"/>
+    </row>
+    <row r="53" spans="2:31" ht="44.25" customHeight="1">
+      <c r="C53" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="103"/>
+      <c r="N53" s="103"/>
+      <c r="O53" s="103"/>
+      <c r="P53" s="103"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="103"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="103"/>
+      <c r="W53" s="103"/>
+      <c r="X53" s="103"/>
+      <c r="Y53" s="103"/>
+      <c r="Z53" s="103"/>
+      <c r="AA53" s="103"/>
+      <c r="AB53" s="103"/>
+      <c r="AC53" s="103"/>
+      <c r="AD53" s="103"/>
+      <c r="AE53" s="104"/>
+    </row>
+    <row r="54" spans="2:31">
+      <c r="C54" s="97"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="91"/>
+      <c r="S54" s="91"/>
+      <c r="T54" s="91"/>
+      <c r="U54" s="91"/>
+      <c r="V54" s="91"/>
+      <c r="W54" s="91"/>
+      <c r="X54" s="91"/>
+      <c r="Y54" s="91"/>
+      <c r="Z54" s="91"/>
+      <c r="AA54" s="91"/>
+      <c r="AB54" s="91"/>
+      <c r="AC54" s="91"/>
+      <c r="AD54" s="91"/>
+      <c r="AE54" s="98"/>
+    </row>
+    <row r="55" spans="2:31">
+      <c r="C55" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="100"/>
+      <c r="Q55" s="100"/>
+      <c r="R55" s="100"/>
+      <c r="S55" s="100"/>
+      <c r="T55" s="100"/>
+      <c r="U55" s="100"/>
+      <c r="V55" s="100"/>
+      <c r="W55" s="100"/>
+      <c r="X55" s="100"/>
+      <c r="Y55" s="100"/>
+      <c r="Z55" s="100"/>
+      <c r="AA55" s="100"/>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="100"/>
+      <c r="AE55" s="101"/>
+    </row>
+    <row r="56" spans="2:31">
+      <c r="C56" s="82"/>
+    </row>
+    <row r="57" spans="2:31">
+      <c r="C57" s="82"/>
+    </row>
+    <row r="58" spans="2:31">
+      <c r="B58" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31">
+      <c r="C59" s="106"/>
+      <c r="D59" s="82"/>
+    </row>
+    <row r="60" spans="2:31">
+      <c r="C60" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="82"/>
+    </row>
+    <row r="61" spans="2:31" ht="28.5" customHeight="1">
+      <c r="C61" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="108"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="108"/>
+      <c r="Z61" s="108"/>
+      <c r="AA61" s="108"/>
+      <c r="AB61" s="108"/>
+      <c r="AC61" s="108"/>
+      <c r="AD61" s="108"/>
+      <c r="AE61" s="109"/>
+    </row>
+    <row r="63" spans="2:31">
+      <c r="C63" s="82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31">
+      <c r="C64" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="87"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="87"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="87"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="87"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="87"/>
+      <c r="U64" s="87"/>
+      <c r="V64" s="88"/>
+    </row>
+    <row r="65" spans="3:31">
+      <c r="C65" s="110"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="91"/>
+      <c r="T65" s="91"/>
+      <c r="U65" s="91"/>
+      <c r="V65" s="91"/>
+    </row>
+    <row r="66" spans="3:31">
+      <c r="C66" s="106"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="91"/>
+      <c r="P66" s="91"/>
+      <c r="Q66" s="91"/>
+      <c r="R66" s="91"/>
+      <c r="S66" s="91"/>
+      <c r="T66" s="91"/>
+      <c r="U66" s="91"/>
+      <c r="V66" s="91"/>
+    </row>
+    <row r="67" spans="3:31">
+      <c r="C67" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="111"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="91"/>
+      <c r="V67" s="91"/>
+    </row>
+    <row r="68" spans="3:31">
+      <c r="C68" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="87"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="87"/>
+      <c r="N68" s="87"/>
+      <c r="O68" s="87"/>
+      <c r="P68" s="87"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="87"/>
+      <c r="S68" s="87"/>
+      <c r="T68" s="87"/>
+      <c r="U68" s="87"/>
+      <c r="V68" s="88"/>
+    </row>
+    <row r="69" spans="3:31">
+      <c r="C69" s="110"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="91"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91"/>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="91"/>
+      <c r="T69" s="91"/>
+      <c r="U69" s="91"/>
+      <c r="V69" s="91"/>
+    </row>
+    <row r="70" spans="3:31">
+      <c r="C70" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="111"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91"/>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+    </row>
+    <row r="71" spans="3:31">
+      <c r="C71" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="86" t="s">
+        <v>393</v>
+      </c>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="87"/>
+      <c r="N71" s="87"/>
+      <c r="O71" s="87"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="87"/>
+      <c r="S71" s="87"/>
+      <c r="T71" s="87"/>
+      <c r="U71" s="87"/>
+      <c r="V71" s="88"/>
+    </row>
+    <row r="72" spans="3:31">
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="91"/>
+      <c r="U72" s="91"/>
+      <c r="V72" s="91"/>
+    </row>
+    <row r="73" spans="3:31">
+      <c r="C73" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="111"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="91"/>
+      <c r="P73" s="91"/>
+      <c r="Q73" s="91"/>
+      <c r="R73" s="91"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="91"/>
+      <c r="V73" s="91"/>
+    </row>
+    <row r="74" spans="3:31">
+      <c r="C74" s="106"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="91"/>
+    </row>
+    <row r="75" spans="3:31">
+      <c r="C75" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="94"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95"/>
+      <c r="I75" s="95"/>
+      <c r="J75" s="95"/>
+      <c r="K75" s="95"/>
+      <c r="L75" s="95"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
+      <c r="R75" s="95"/>
+      <c r="S75" s="95"/>
+      <c r="T75" s="95"/>
+      <c r="U75" s="95"/>
+      <c r="V75" s="95"/>
+      <c r="W75" s="95"/>
+      <c r="X75" s="95"/>
+      <c r="Y75" s="95"/>
+      <c r="Z75" s="95"/>
+      <c r="AA75" s="95"/>
+      <c r="AB75" s="95"/>
+      <c r="AC75" s="95"/>
+      <c r="AD75" s="95"/>
+      <c r="AE75" s="96"/>
+    </row>
+    <row r="76" spans="3:31">
+      <c r="C76" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="111"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="91"/>
+      <c r="P76" s="91"/>
+      <c r="Q76" s="91"/>
+      <c r="R76" s="91"/>
+      <c r="S76" s="91"/>
+      <c r="T76" s="91"/>
+      <c r="U76" s="91"/>
+      <c r="V76" s="91"/>
+      <c r="W76" s="91"/>
+      <c r="X76" s="91"/>
+      <c r="Y76" s="91"/>
+      <c r="Z76" s="91"/>
+      <c r="AA76" s="91"/>
+      <c r="AB76" s="91"/>
+      <c r="AC76" s="91"/>
+      <c r="AD76" s="91"/>
+      <c r="AE76" s="98"/>
+    </row>
+    <row r="77" spans="3:31">
+      <c r="C77" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="111"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="91"/>
+      <c r="P77" s="91"/>
+      <c r="Q77" s="91"/>
+      <c r="R77" s="91"/>
+      <c r="S77" s="91"/>
+      <c r="T77" s="91"/>
+      <c r="U77" s="91"/>
+      <c r="V77" s="91"/>
+      <c r="W77" s="91"/>
+      <c r="X77" s="91"/>
+      <c r="Y77" s="91"/>
+      <c r="Z77" s="91"/>
+      <c r="AA77" s="91"/>
+      <c r="AB77" s="91"/>
+      <c r="AC77" s="91"/>
+      <c r="AD77" s="91"/>
+      <c r="AE77" s="98"/>
+    </row>
+    <row r="78" spans="3:31">
+      <c r="C78" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="111"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="91"/>
+      <c r="M78" s="91"/>
+      <c r="N78" s="91"/>
+      <c r="O78" s="91"/>
+      <c r="P78" s="91"/>
+      <c r="Q78" s="91"/>
+      <c r="R78" s="91"/>
+      <c r="S78" s="91"/>
+      <c r="T78" s="91"/>
+      <c r="U78" s="91"/>
+      <c r="V78" s="91"/>
+      <c r="W78" s="91"/>
+      <c r="X78" s="91"/>
+      <c r="Y78" s="91"/>
+      <c r="Z78" s="91"/>
+      <c r="AA78" s="91"/>
+      <c r="AB78" s="91"/>
+      <c r="AC78" s="91"/>
+      <c r="AD78" s="91"/>
+      <c r="AE78" s="98"/>
+    </row>
+    <row r="79" spans="3:31">
+      <c r="C79" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="111"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="91"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="91"/>
+      <c r="S79" s="91"/>
+      <c r="T79" s="91"/>
+      <c r="U79" s="91"/>
+      <c r="V79" s="91"/>
+      <c r="W79" s="91"/>
+      <c r="X79" s="91"/>
+      <c r="Y79" s="91"/>
+      <c r="Z79" s="91"/>
+      <c r="AA79" s="91"/>
+      <c r="AB79" s="91"/>
+      <c r="AC79" s="91"/>
+      <c r="AD79" s="91"/>
+      <c r="AE79" s="98"/>
+    </row>
+    <row r="80" spans="3:31" ht="27" customHeight="1">
+      <c r="C80" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="D80" s="115"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
+      <c r="G80" s="115"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+      <c r="M80" s="115"/>
+      <c r="N80" s="115"/>
+      <c r="O80" s="115"/>
+      <c r="P80" s="115"/>
+      <c r="Q80" s="115"/>
+      <c r="R80" s="115"/>
+      <c r="S80" s="115"/>
+      <c r="T80" s="115"/>
+      <c r="U80" s="115"/>
+      <c r="V80" s="115"/>
+      <c r="W80" s="115"/>
+      <c r="X80" s="115"/>
+      <c r="Y80" s="115"/>
+      <c r="Z80" s="115"/>
+      <c r="AA80" s="115"/>
+      <c r="AB80" s="115"/>
+      <c r="AC80" s="115"/>
+      <c r="AD80" s="115"/>
+      <c r="AE80" s="116"/>
+    </row>
+    <row r="81" spans="3:31">
+      <c r="C81" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D81" s="111"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="91"/>
+      <c r="L81" s="91"/>
+      <c r="M81" s="91"/>
+      <c r="N81" s="91"/>
+      <c r="O81" s="91"/>
+      <c r="P81" s="91"/>
+      <c r="Q81" s="91"/>
+      <c r="R81" s="91"/>
+      <c r="S81" s="91"/>
+      <c r="T81" s="91"/>
+      <c r="U81" s="91"/>
+      <c r="V81" s="91"/>
+      <c r="W81" s="91"/>
+      <c r="X81" s="91"/>
+      <c r="Y81" s="91"/>
+      <c r="Z81" s="91"/>
+      <c r="AA81" s="91"/>
+      <c r="AB81" s="91"/>
+      <c r="AC81" s="91"/>
+      <c r="AD81" s="91"/>
+      <c r="AE81" s="98"/>
+    </row>
+    <row r="82" spans="3:31">
+      <c r="C82" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="D82" s="111"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="91"/>
+      <c r="M82" s="91"/>
+      <c r="N82" s="91"/>
+      <c r="O82" s="91"/>
+      <c r="P82" s="91"/>
+      <c r="Q82" s="91"/>
+      <c r="R82" s="91"/>
+      <c r="S82" s="91"/>
+      <c r="T82" s="91"/>
+      <c r="U82" s="91"/>
+      <c r="V82" s="91"/>
+      <c r="W82" s="91"/>
+      <c r="X82" s="91"/>
+      <c r="Y82" s="91"/>
+      <c r="Z82" s="91"/>
+      <c r="AA82" s="91"/>
+      <c r="AB82" s="91"/>
+      <c r="AC82" s="91"/>
+      <c r="AD82" s="91"/>
+      <c r="AE82" s="98"/>
+    </row>
+    <row r="83" spans="3:31">
+      <c r="C83" s="97" t="s">
+        <v>397</v>
+      </c>
+      <c r="D83" s="111"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="91"/>
+      <c r="Q83" s="91"/>
+      <c r="R83" s="91"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="91"/>
+      <c r="AA83" s="91"/>
+      <c r="AB83" s="91"/>
+      <c r="AC83" s="91"/>
+      <c r="AD83" s="91"/>
+      <c r="AE83" s="98"/>
+    </row>
+    <row r="84" spans="3:31">
+      <c r="C84" s="97" t="s">
+        <v>398</v>
+      </c>
+      <c r="D84" s="111"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="91"/>
+      <c r="U84" s="91"/>
+      <c r="V84" s="91"/>
+      <c r="W84" s="91"/>
+      <c r="X84" s="91"/>
+      <c r="Y84" s="91"/>
+      <c r="Z84" s="91"/>
+      <c r="AA84" s="91"/>
+      <c r="AB84" s="91"/>
+      <c r="AC84" s="91"/>
+      <c r="AD84" s="91"/>
+      <c r="AE84" s="98"/>
+    </row>
+    <row r="85" spans="3:31">
+      <c r="C85" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="111"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="91"/>
+      <c r="U85" s="91"/>
+      <c r="V85" s="91"/>
+      <c r="W85" s="91"/>
+      <c r="X85" s="91"/>
+      <c r="Y85" s="91"/>
+      <c r="Z85" s="91"/>
+      <c r="AA85" s="91"/>
+      <c r="AB85" s="91"/>
+      <c r="AC85" s="91"/>
+      <c r="AD85" s="91"/>
+      <c r="AE85" s="98"/>
+    </row>
+    <row r="86" spans="3:31">
+      <c r="C86" s="117"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="100"/>
+      <c r="F86" s="100"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="100"/>
+      <c r="I86" s="100"/>
+      <c r="J86" s="100"/>
+      <c r="K86" s="100"/>
+      <c r="L86" s="100"/>
+      <c r="M86" s="100"/>
+      <c r="N86" s="100"/>
+      <c r="O86" s="100"/>
+      <c r="P86" s="100"/>
+      <c r="Q86" s="100"/>
+      <c r="R86" s="100"/>
+      <c r="S86" s="100"/>
+      <c r="T86" s="100"/>
+      <c r="U86" s="100"/>
+      <c r="V86" s="100"/>
+      <c r="W86" s="100"/>
+      <c r="X86" s="100"/>
+      <c r="Y86" s="100"/>
+      <c r="Z86" s="100"/>
+      <c r="AA86" s="100"/>
+      <c r="AB86" s="100"/>
+      <c r="AC86" s="100"/>
+      <c r="AD86" s="100"/>
+      <c r="AE86" s="101"/>
+    </row>
+    <row r="87" spans="3:31">
+      <c r="C87" s="112"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="91"/>
+      <c r="L87" s="91"/>
+      <c r="M87" s="91"/>
+      <c r="N87" s="91"/>
+      <c r="O87" s="91"/>
+      <c r="P87" s="91"/>
+      <c r="Q87" s="91"/>
+      <c r="R87" s="91"/>
+      <c r="S87" s="91"/>
+      <c r="T87" s="91"/>
+      <c r="U87" s="91"/>
+      <c r="V87" s="91"/>
+      <c r="W87" s="91"/>
+      <c r="X87" s="91"/>
+      <c r="Y87" s="91"/>
+      <c r="Z87" s="91"/>
+      <c r="AA87" s="91"/>
+      <c r="AB87" s="91"/>
+      <c r="AC87" s="91"/>
+      <c r="AD87" s="91"/>
+      <c r="AE87" s="91"/>
+    </row>
+    <row r="88" spans="3:31">
+      <c r="C88" s="112"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="91"/>
+      <c r="M88" s="91"/>
+      <c r="N88" s="91"/>
+      <c r="O88" s="91"/>
+      <c r="P88" s="91"/>
+      <c r="Q88" s="91"/>
+      <c r="R88" s="91"/>
+      <c r="S88" s="91"/>
+      <c r="T88" s="91"/>
+      <c r="U88" s="91"/>
+      <c r="V88" s="91"/>
+      <c r="W88" s="91"/>
+      <c r="X88" s="91"/>
+      <c r="Y88" s="91"/>
+      <c r="Z88" s="91"/>
+      <c r="AA88" s="91"/>
+      <c r="AB88" s="91"/>
+      <c r="AC88" s="91"/>
+      <c r="AD88" s="91"/>
+      <c r="AE88" s="91"/>
+    </row>
+    <row r="89" spans="3:31">
+      <c r="C89" s="110"/>
+      <c r="D89" s="111"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="91"/>
+      <c r="O89" s="91"/>
+      <c r="P89" s="91"/>
+      <c r="Q89" s="91"/>
+      <c r="R89" s="91"/>
+      <c r="S89" s="91"/>
+      <c r="T89" s="91"/>
+      <c r="U89" s="91"/>
+      <c r="V89" s="91"/>
+    </row>
+    <row r="90" spans="3:31">
+      <c r="C90" s="112" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="46">
-        <v>1</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30">
-      <c r="C17" s="27" t="s">
+      <c r="D90" s="111"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="91"/>
+      <c r="N90" s="91"/>
+      <c r="O90" s="91"/>
+      <c r="P90" s="91"/>
+      <c r="Q90" s="91"/>
+      <c r="R90" s="91"/>
+      <c r="S90" s="91"/>
+      <c r="T90" s="91"/>
+      <c r="U90" s="91"/>
+      <c r="V90" s="91"/>
+    </row>
+    <row r="91" spans="3:31">
+      <c r="C91" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="6"/>
-    </row>
-    <row r="18" spans="2:30">
-      <c r="C18" s="27" t="s">
+      <c r="D91" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" s="87"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="87"/>
+      <c r="H91" s="87"/>
+      <c r="I91" s="87"/>
+      <c r="J91" s="87"/>
+      <c r="K91" s="87"/>
+      <c r="L91" s="87"/>
+      <c r="M91" s="87"/>
+      <c r="N91" s="87"/>
+      <c r="O91" s="87"/>
+      <c r="P91" s="87"/>
+      <c r="Q91" s="87"/>
+      <c r="R91" s="87"/>
+      <c r="S91" s="87"/>
+      <c r="T91" s="87"/>
+      <c r="U91" s="87"/>
+      <c r="V91" s="88"/>
+    </row>
+    <row r="92" spans="3:31">
+      <c r="C92" s="110"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="91"/>
+      <c r="J92" s="91"/>
+      <c r="K92" s="91"/>
+      <c r="L92" s="91"/>
+      <c r="M92" s="91"/>
+      <c r="N92" s="91"/>
+      <c r="O92" s="91"/>
+      <c r="P92" s="91"/>
+      <c r="Q92" s="91"/>
+      <c r="R92" s="91"/>
+      <c r="S92" s="91"/>
+      <c r="T92" s="91"/>
+      <c r="U92" s="91"/>
+      <c r="V92" s="91"/>
+    </row>
+    <row r="93" spans="3:31">
+      <c r="C93" s="119" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="119"/>
+      <c r="E93" s="120"/>
+      <c r="F93" s="120"/>
+      <c r="G93" s="120"/>
+      <c r="H93" s="91"/>
+      <c r="I93" s="91"/>
+      <c r="J93" s="91"/>
+      <c r="K93" s="91"/>
+      <c r="L93" s="91"/>
+      <c r="M93" s="91"/>
+      <c r="N93" s="91"/>
+      <c r="O93" s="91"/>
+      <c r="P93" s="91"/>
+      <c r="Q93" s="91"/>
+      <c r="R93" s="91"/>
+      <c r="S93" s="91"/>
+      <c r="T93" s="91"/>
+      <c r="U93" s="91"/>
+      <c r="V93" s="91"/>
+    </row>
+    <row r="94" spans="3:31">
+      <c r="C94" s="112" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="111"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+      <c r="J94" s="91"/>
+      <c r="K94" s="91"/>
+      <c r="L94" s="91"/>
+      <c r="M94" s="91"/>
+      <c r="N94" s="91"/>
+      <c r="O94" s="91"/>
+      <c r="P94" s="91"/>
+      <c r="Q94" s="91"/>
+      <c r="R94" s="91"/>
+      <c r="S94" s="91"/>
+      <c r="T94" s="91"/>
+      <c r="U94" s="91"/>
+      <c r="V94" s="91"/>
+    </row>
+    <row r="95" spans="3:31" ht="27.75" customHeight="1">
+      <c r="C95" s="110"/>
+      <c r="D95" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E95" s="108"/>
+      <c r="F95" s="108"/>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
+      <c r="I95" s="108"/>
+      <c r="J95" s="108"/>
+      <c r="K95" s="108"/>
+      <c r="L95" s="108"/>
+      <c r="M95" s="108"/>
+      <c r="N95" s="108"/>
+      <c r="O95" s="108"/>
+      <c r="P95" s="108"/>
+      <c r="Q95" s="108"/>
+      <c r="R95" s="108"/>
+      <c r="S95" s="108"/>
+      <c r="T95" s="108"/>
+      <c r="U95" s="108"/>
+      <c r="V95" s="108"/>
+      <c r="W95" s="108"/>
+      <c r="X95" s="108"/>
+      <c r="Y95" s="108"/>
+      <c r="Z95" s="108"/>
+      <c r="AA95" s="108"/>
+      <c r="AB95" s="108"/>
+      <c r="AC95" s="108"/>
+      <c r="AD95" s="108"/>
+      <c r="AE95" s="109"/>
+    </row>
+    <row r="96" spans="3:31">
+      <c r="C96" s="110"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="91"/>
+      <c r="L96" s="91"/>
+      <c r="M96" s="91"/>
+      <c r="N96" s="91"/>
+      <c r="O96" s="91"/>
+      <c r="P96" s="91"/>
+      <c r="Q96" s="91"/>
+      <c r="R96" s="91"/>
+      <c r="S96" s="91"/>
+      <c r="T96" s="91"/>
+      <c r="U96" s="91"/>
+      <c r="V96" s="91"/>
+    </row>
+    <row r="97" spans="2:22">
+      <c r="C97" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="111"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="91"/>
+      <c r="J97" s="91"/>
+      <c r="K97" s="91"/>
+      <c r="L97" s="91"/>
+      <c r="M97" s="91"/>
+      <c r="N97" s="91"/>
+      <c r="O97" s="91"/>
+      <c r="P97" s="91"/>
+      <c r="Q97" s="91"/>
+      <c r="R97" s="91"/>
+      <c r="S97" s="91"/>
+      <c r="T97" s="91"/>
+      <c r="U97" s="91"/>
+      <c r="V97" s="91"/>
+    </row>
+    <row r="98" spans="2:22">
+      <c r="C98" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="111"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
+      <c r="I98" s="91"/>
+      <c r="J98" s="91"/>
+      <c r="K98" s="91"/>
+      <c r="L98" s="91"/>
+      <c r="M98" s="91"/>
+      <c r="N98" s="91"/>
+      <c r="O98" s="91"/>
+      <c r="P98" s="91"/>
+      <c r="Q98" s="91"/>
+      <c r="R98" s="91"/>
+      <c r="S98" s="91"/>
+      <c r="T98" s="91"/>
+      <c r="U98" s="91"/>
+      <c r="V98" s="91"/>
+    </row>
+    <row r="99" spans="2:22">
+      <c r="C99" s="110"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
+      <c r="J99" s="91"/>
+      <c r="K99" s="91"/>
+      <c r="L99" s="91"/>
+      <c r="M99" s="91"/>
+      <c r="N99" s="91"/>
+      <c r="O99" s="91"/>
+      <c r="P99" s="91"/>
+      <c r="Q99" s="91"/>
+      <c r="R99" s="91"/>
+      <c r="S99" s="91"/>
+      <c r="T99" s="91"/>
+      <c r="U99" s="91"/>
+      <c r="V99" s="91"/>
+    </row>
+    <row r="100" spans="2:22">
+      <c r="C100" s="110"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="91"/>
+      <c r="J100" s="91"/>
+      <c r="K100" s="91"/>
+      <c r="L100" s="91"/>
+      <c r="M100" s="91"/>
+      <c r="N100" s="91"/>
+      <c r="O100" s="91"/>
+      <c r="P100" s="91"/>
+      <c r="Q100" s="91"/>
+      <c r="R100" s="91"/>
+      <c r="S100" s="91"/>
+      <c r="T100" s="91"/>
+      <c r="U100" s="91"/>
+      <c r="V100" s="91"/>
+    </row>
+    <row r="101" spans="2:22">
+      <c r="B101" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="111"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
+      <c r="J101" s="91"/>
+      <c r="K101" s="91"/>
+      <c r="L101" s="91"/>
+      <c r="M101" s="91"/>
+      <c r="N101" s="91"/>
+      <c r="O101" s="91"/>
+      <c r="P101" s="91"/>
+      <c r="Q101" s="91"/>
+      <c r="R101" s="91"/>
+      <c r="S101" s="91"/>
+      <c r="T101" s="91"/>
+      <c r="U101" s="91"/>
+      <c r="V101" s="91"/>
+    </row>
+    <row r="102" spans="2:22">
+      <c r="C102" s="106"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="91"/>
+      <c r="J102" s="91"/>
+      <c r="K102" s="91"/>
+      <c r="L102" s="91"/>
+      <c r="M102" s="91"/>
+      <c r="N102" s="91"/>
+      <c r="O102" s="91"/>
+      <c r="P102" s="91"/>
+      <c r="Q102" s="91"/>
+      <c r="R102" s="91"/>
+      <c r="S102" s="91"/>
+      <c r="T102" s="91"/>
+      <c r="U102" s="91"/>
+      <c r="V102" s="91"/>
+    </row>
+    <row r="103" spans="2:22">
+      <c r="C103" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="D103" s="111"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="91"/>
+      <c r="I103" s="91"/>
+      <c r="J103" s="91"/>
+      <c r="K103" s="91"/>
+      <c r="L103" s="91"/>
+      <c r="M103" s="91"/>
+      <c r="N103" s="91"/>
+      <c r="O103" s="91"/>
+      <c r="P103" s="91"/>
+      <c r="Q103" s="91"/>
+      <c r="R103" s="91"/>
+      <c r="S103" s="91"/>
+      <c r="T103" s="91"/>
+      <c r="U103" s="91"/>
+      <c r="V103" s="91"/>
+    </row>
+    <row r="104" spans="2:22">
+      <c r="C104" s="110"/>
+      <c r="D104" s="111"/>
+      <c r="E104" s="91"/>
+      <c r="F104" s="91"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="91"/>
+      <c r="I104" s="91"/>
+      <c r="J104" s="91"/>
+      <c r="K104" s="91"/>
+      <c r="L104" s="91"/>
+      <c r="M104" s="91"/>
+      <c r="N104" s="91"/>
+      <c r="O104" s="91"/>
+      <c r="P104" s="91"/>
+      <c r="Q104" s="91"/>
+      <c r="R104" s="91"/>
+      <c r="S104" s="91"/>
+      <c r="T104" s="91"/>
+      <c r="U104" s="91"/>
+      <c r="V104" s="91"/>
+    </row>
+    <row r="105" spans="2:22">
+      <c r="C105" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="6"/>
-    </row>
-    <row r="19" spans="2:30">
-      <c r="C19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="21" spans="2:30">
-      <c r="B21" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30">
-      <c r="C22" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="24" spans="2:30">
-      <c r="B24" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30">
-      <c r="C25" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30">
-      <c r="C27" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="6"/>
-    </row>
-    <row r="28" spans="2:30">
-      <c r="C28" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="6"/>
-    </row>
-    <row r="30" spans="2:30">
-      <c r="B30" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30">
-      <c r="C31" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="6"/>
-    </row>
-    <row r="32" spans="2:30">
-      <c r="C32" s="21"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="46">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="C37" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="6"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="C39" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="C41" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="9"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="C42" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="12"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="C43" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="15"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="C45" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="2:31">
-      <c r="C49" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31">
-      <c r="C50" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="6"/>
-    </row>
-    <row r="52" spans="2:31" ht="44.25" customHeight="1">
-      <c r="C52" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="75"/>
-      <c r="U52" s="75"/>
-      <c r="V52" s="75"/>
-      <c r="W52" s="75"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="75"/>
-      <c r="AA52" s="75"/>
-      <c r="AB52" s="75"/>
-      <c r="AC52" s="75"/>
-      <c r="AD52" s="75"/>
-      <c r="AE52" s="76"/>
-    </row>
-    <row r="53" spans="2:31">
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="12"/>
-    </row>
-    <row r="54" spans="2:31">
-      <c r="C54" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="15"/>
-    </row>
-    <row r="55" spans="2:31">
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="2:31">
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="2:31">
-      <c r="B57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="2:31">
-      <c r="C58" s="26"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="2:31">
-      <c r="C59" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="2:31" ht="28.5" customHeight="1">
-      <c r="C60" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
-      <c r="Q60" s="83"/>
-      <c r="R60" s="83"/>
-      <c r="S60" s="83"/>
-      <c r="T60" s="83"/>
-      <c r="U60" s="83"/>
-      <c r="V60" s="83"/>
-      <c r="W60" s="83"/>
-      <c r="X60" s="83"/>
-      <c r="Y60" s="83"/>
-      <c r="Z60" s="83"/>
-      <c r="AA60" s="83"/>
-      <c r="AB60" s="83"/>
-      <c r="AC60" s="83"/>
-      <c r="AD60" s="83"/>
-      <c r="AE60" s="84"/>
-    </row>
-    <row r="62" spans="2:31">
-      <c r="C62" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31">
-      <c r="C63" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="6"/>
-    </row>
-    <row r="64" spans="2:31">
-      <c r="C64" s="29"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-    </row>
-    <row r="65" spans="3:31">
-      <c r="C65" s="26"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-    </row>
-    <row r="66" spans="3:31">
-      <c r="C66" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-    </row>
-    <row r="67" spans="3:31">
-      <c r="C67" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="6"/>
-    </row>
-    <row r="68" spans="3:31">
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-    </row>
-    <row r="69" spans="3:31">
-      <c r="C69" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-    </row>
-    <row r="70" spans="3:31">
-      <c r="C70" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-    </row>
-    <row r="71" spans="3:31">
-      <c r="C71" s="26"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-    </row>
-    <row r="72" spans="3:31">
-      <c r="C72" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="8"/>
-      <c r="AC72" s="8"/>
-      <c r="AD72" s="8"/>
-      <c r="AE72" s="9"/>
-    </row>
-    <row r="73" spans="3:31">
-      <c r="C73" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="12"/>
-    </row>
-    <row r="74" spans="3:31">
-      <c r="C74" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="12"/>
-    </row>
-    <row r="75" spans="3:31">
-      <c r="C75" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="11"/>
-      <c r="AE75" s="12"/>
-    </row>
-    <row r="76" spans="3:31">
-      <c r="C76" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="11"/>
-      <c r="AE76" s="12"/>
-    </row>
-    <row r="77" spans="3:31" ht="27" customHeight="1">
-      <c r="C77" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
-      <c r="M77" s="85"/>
-      <c r="N77" s="85"/>
-      <c r="O77" s="85"/>
-      <c r="P77" s="85"/>
-      <c r="Q77" s="85"/>
-      <c r="R77" s="85"/>
-      <c r="S77" s="85"/>
-      <c r="T77" s="85"/>
-      <c r="U77" s="85"/>
-      <c r="V77" s="85"/>
-      <c r="W77" s="85"/>
-      <c r="X77" s="85"/>
-      <c r="Y77" s="85"/>
-      <c r="Z77" s="85"/>
-      <c r="AA77" s="85"/>
-      <c r="AB77" s="85"/>
-      <c r="AC77" s="85"/>
-      <c r="AD77" s="85"/>
-      <c r="AE77" s="85"/>
-    </row>
-    <row r="78" spans="3:31">
-      <c r="C78" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
-      <c r="AE78" s="12"/>
-    </row>
-    <row r="79" spans="3:31">
-      <c r="C79" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
-      <c r="AA79" s="11"/>
-      <c r="AB79" s="11"/>
-      <c r="AC79" s="11"/>
-      <c r="AD79" s="11"/>
-      <c r="AE79" s="12"/>
-    </row>
-    <row r="80" spans="3:31">
-      <c r="C80" s="33" t="s">
+      <c r="D105" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="11"/>
-      <c r="AB80" s="11"/>
-      <c r="AC80" s="11"/>
-      <c r="AD80" s="11"/>
-      <c r="AE80" s="12"/>
-    </row>
-    <row r="81" spans="2:31">
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="14"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-    </row>
-    <row r="82" spans="2:31">
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
-    </row>
-    <row r="83" spans="2:31">
-      <c r="C83" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-    </row>
-    <row r="84" spans="2:31">
-      <c r="C84" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="6"/>
-    </row>
-    <row r="85" spans="2:31">
-      <c r="C85" s="29"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-    </row>
-    <row r="86" spans="2:31">
-      <c r="C86" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D86" s="56"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-    </row>
-    <row r="87" spans="2:31">
-      <c r="C87" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-    </row>
-    <row r="88" spans="2:31" ht="27.75" customHeight="1">
-      <c r="C88" s="29"/>
-      <c r="D88" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="83"/>
-      <c r="M88" s="83"/>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="83"/>
-      <c r="T88" s="83"/>
-      <c r="U88" s="83"/>
-      <c r="V88" s="83"/>
-      <c r="W88" s="83"/>
-      <c r="X88" s="83"/>
-      <c r="Y88" s="83"/>
-      <c r="Z88" s="83"/>
-      <c r="AA88" s="83"/>
-      <c r="AB88" s="83"/>
-      <c r="AC88" s="83"/>
-      <c r="AD88" s="83"/>
-      <c r="AE88" s="84"/>
-    </row>
-    <row r="89" spans="2:31">
-      <c r="C89" s="29"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-    </row>
-    <row r="90" spans="2:31">
-      <c r="C90" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-    </row>
-    <row r="91" spans="2:31">
-      <c r="C91" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-    </row>
-    <row r="92" spans="2:31">
-      <c r="C92" s="29"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-    </row>
-    <row r="93" spans="2:31">
-      <c r="C93" s="29"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
-    </row>
-    <row r="94" spans="2:31">
-      <c r="B94" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-    </row>
-    <row r="95" spans="2:31">
-      <c r="C95" s="26"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11"/>
-      <c r="U95" s="11"/>
-      <c r="V95" s="11"/>
-    </row>
-    <row r="96" spans="2:31">
-      <c r="C96" s="31" t="s">
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="87"/>
+      <c r="I105" s="87"/>
+      <c r="J105" s="87"/>
+      <c r="K105" s="87"/>
+      <c r="L105" s="87"/>
+      <c r="M105" s="87"/>
+      <c r="N105" s="87"/>
+      <c r="O105" s="87"/>
+      <c r="P105" s="87"/>
+      <c r="Q105" s="87"/>
+      <c r="R105" s="87"/>
+      <c r="S105" s="87"/>
+      <c r="T105" s="87"/>
+      <c r="U105" s="87"/>
+      <c r="V105" s="88"/>
+    </row>
+    <row r="106" spans="2:22">
+      <c r="C106" s="110"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+      <c r="J106" s="91"/>
+      <c r="K106" s="91"/>
+      <c r="L106" s="91"/>
+      <c r="M106" s="91"/>
+      <c r="N106" s="91"/>
+      <c r="O106" s="91"/>
+      <c r="P106" s="91"/>
+      <c r="Q106" s="91"/>
+      <c r="R106" s="91"/>
+      <c r="S106" s="91"/>
+      <c r="T106" s="91"/>
+      <c r="U106" s="91"/>
+      <c r="V106" s="91"/>
+    </row>
+    <row r="107" spans="2:22">
+      <c r="C107" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22">
+      <c r="B109" s="81" t="s">
         <v>283</v>
-      </c>
-      <c r="D96" s="30"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
-    </row>
-    <row r="97" spans="2:22">
-      <c r="C97" s="29"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11"/>
-      <c r="V97" s="11"/>
-    </row>
-    <row r="98" spans="2:22">
-      <c r="C98" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="6"/>
-    </row>
-    <row r="99" spans="2:22">
-      <c r="C99" s="29"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-    </row>
-    <row r="100" spans="2:22">
-      <c r="C100" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="102" spans="2:22">
-      <c r="B102" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C52:AE52"/>
-    <mergeCell ref="D88:AE88"/>
-    <mergeCell ref="D60:AE60"/>
-    <mergeCell ref="C77:AE77"/>
+    <mergeCell ref="C53:AE53"/>
+    <mergeCell ref="D61:AE61"/>
+    <mergeCell ref="C80:AE80"/>
+    <mergeCell ref="D95:AE95"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C91" location="MySQL!A16" display="(Refer sheet &quot;MySQL)"/>
-    <hyperlink ref="C100" location="MySQL!A35" display="(Refer mysql script in sheet &quot;MySQL&quot;)"/>
+    <hyperlink ref="C98" location="MySQL!A16" display="(Refer sheet &quot;MySQL)"/>
+    <hyperlink ref="C107" location="MySQL!A35" display="(Refer mysql script in sheet &quot;MySQL&quot;)"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.4" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13468,32 +13756,32 @@
     </row>
     <row r="8" spans="2:26" ht="41.25" customHeight="1">
       <c r="B8" s="10"/>
-      <c r="C8" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="87"/>
+      <c r="C8" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="77"/>
     </row>
     <row r="9" spans="2:26">
       <c r="B9" s="10"/>
@@ -13636,7 +13924,7 @@
     </row>
     <row r="18" spans="20:20">
       <c r="T18" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -17070,7 +17358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="15.75"/>
   <cols>
@@ -17079,7 +17369,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="48" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17109,7 +17399,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="48" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -17132,137 +17422,137 @@
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="48" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="49" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="49" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="49" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="49" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="49" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="49" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="49" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:22" ht="33" customHeight="1">
-      <c r="B30" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
+      <c r="B30" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="49" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="91.5" customHeight="1">
-      <c r="B35" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
+      <c r="B35" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17289,262 +17579,262 @@
     <col min="1" max="1" width="3.28515625" style="47"/>
     <col min="2" max="2" width="3.85546875" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="3.28515625" style="47"/>
-    <col min="8" max="16384" width="3.28515625" style="63"/>
+    <col min="8" max="16384" width="3.28515625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="67">
+      <c r="A1" s="61">
         <v>1</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="67"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="67"/>
-      <c r="C3" s="68" t="s">
-        <v>331</v>
+      <c r="A3" s="61"/>
+      <c r="C3" s="62" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="47" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:34">
-      <c r="AH34" s="64" t="s">
-        <v>303</v>
+      <c r="AH34" s="58" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="67">
+      <c r="A35" s="61">
         <v>2</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:34">
       <c r="B36" s="47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="C37" s="47" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="16.5" thickBot="1">
-      <c r="B39" s="69" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="66"/>
+      <c r="B39" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
     </row>
     <row r="40" spans="1:34" ht="16.5" thickTop="1"/>
     <row r="41" spans="1:34">
       <c r="C41" s="47" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:34">
-      <c r="B42" s="70">
+      <c r="B42" s="64">
         <v>1</v>
       </c>
-      <c r="C42" s="71" t="s">
-        <v>309</v>
+      <c r="C42" s="65" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="C43" s="47" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="70">
+      <c r="B69" s="64">
         <v>2</v>
       </c>
-      <c r="C69" s="71" t="s">
-        <v>311</v>
+      <c r="C69" s="65" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="2:29">
       <c r="C99" s="47" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:29">
       <c r="D100" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC100" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="2:29">
+      <c r="B103" s="64">
+        <v>3</v>
+      </c>
+      <c r="C103" s="65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="2:29">
+      <c r="B104" s="66"/>
+      <c r="C104" s="47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="2:29">
+      <c r="B105" s="66"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="64">
+        <v>4</v>
+      </c>
+      <c r="C137" s="65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="66"/>
+      <c r="C138" s="47" t="s">
         <v>314</v>
-      </c>
-      <c r="AC100" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" spans="2:29">
-      <c r="B103" s="70">
-        <v>3</v>
-      </c>
-      <c r="C103" s="71" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="104" spans="2:29">
-      <c r="B104" s="72"/>
-      <c r="C104" s="47" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="105" spans="2:29">
-      <c r="B105" s="72"/>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="70">
-        <v>4</v>
-      </c>
-      <c r="C137" s="71" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3">
-      <c r="B138" s="72"/>
-      <c r="C138" s="47" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="C139" s="47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="C140" s="47" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" spans="2:3">
       <c r="C141" s="47" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="70">
+      <c r="B171" s="64">
         <v>5</v>
       </c>
-      <c r="C171" s="71" t="s">
-        <v>322</v>
+      <c r="C171" s="65" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="70">
+      <c r="B205" s="64">
         <v>6</v>
       </c>
-      <c r="C205" s="71" t="s">
-        <v>323</v>
+      <c r="C205" s="65" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="232" spans="2:3">
       <c r="C232" s="47" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="2:3">
       <c r="C238" s="47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="70">
+      <c r="B239" s="64">
         <v>7</v>
       </c>
-      <c r="C239" s="71" t="s">
-        <v>326</v>
+      <c r="C239" s="65" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="2:3">
       <c r="C240" s="47" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="70">
+      <c r="B273" s="64">
         <v>8</v>
       </c>
-      <c r="C273" s="71" t="s">
-        <v>329</v>
+      <c r="C273" s="65" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="274" spans="2:3">
       <c r="C274" s="47" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="307" spans="2:4">
-      <c r="B307" s="70">
+      <c r="B307" s="64">
         <v>9</v>
       </c>
-      <c r="C307" s="71" t="s">
-        <v>330</v>
+      <c r="C307" s="65" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="308" spans="2:4">
-      <c r="B308" s="70"/>
+      <c r="B308" s="64"/>
       <c r="C308" s="47" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="309" spans="2:4">
       <c r="D309" s="47" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="2:3">
       <c r="C338" s="47" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="70">
+      <c r="B341" s="64">
         <v>10</v>
       </c>
-      <c r="C341" s="71" t="s">
-        <v>336</v>
+      <c r="C341" s="65" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="342" spans="2:3">
       <c r="C342" s="47" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="372" spans="3:3">
       <c r="C372" s="47" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="373" spans="3:3">
       <c r="C373" s="47" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -17571,90 +17861,90 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="7" width="3.28515625" style="47"/>
-    <col min="8" max="16384" width="3.28515625" style="63"/>
+    <col min="8" max="16384" width="3.28515625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="67">
+      <c r="A1" s="61">
         <v>1</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="65" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="64">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="57"/>
+      <c r="C3" s="47" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="57"/>
+      <c r="C4" s="47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="57"/>
+      <c r="C35" s="47" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="70">
-        <v>1</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="47" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="63"/>
-      <c r="C4" s="47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="47" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="47" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" s="47" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" s="47" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="70">
+      <c r="B137" s="64">
         <v>2</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="3:3">
       <c r="C171" s="47" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="3:3">
       <c r="C172" s="47" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="47" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="3:3">
       <c r="C205" s="47" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" spans="3:3">
       <c r="C239" s="47" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
